--- a/DATA_goal/Junction_Flooding_315.xlsx
+++ b/DATA_goal/Junction_Flooding_315.xlsx
@@ -448,28 +448,28 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44996.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44996.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.91</v>
+        <v>49.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.94</v>
+        <v>39.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.61</v>
+        <v>66.11</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.61</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.5</v>
+        <v>24.98</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.51</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.16</v>
+        <v>261.65</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.94</v>
+        <v>49.39</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.29</v>
+        <v>32.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.28</v>
+        <v>32.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.37</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.05</v>
+        <v>60.48</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44996.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.6</v>
+        <v>46.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.72</v>
+        <v>37.21</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.51</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.56</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.47</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.07</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.45</v>
+        <v>244.48</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.63</v>
+        <v>46.29</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.1</v>
+        <v>30.95</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.16</v>
+        <v>31.62</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.94</v>
+        <v>59.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44996.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.96</v>
+        <v>39.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.58</v>
+        <v>135.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.64</v>
+        <v>26.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.62</v>
+        <v>36.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_315.xlsx
+++ b/DATA_goal/Junction_Flooding_315.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44996.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>164.3</v>
@@ -715,43 +715,43 @@
         <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44996.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.5</v>
+        <v>22.495</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.35</v>
+        <v>16.349</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.96</v>
+        <v>1.964</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.13</v>
+        <v>49.125</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.41</v>
+        <v>39.411</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.58</v>
+        <v>17.582</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>66.11</v>
+        <v>66.114</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.93</v>
+        <v>11.931</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.59</v>
+        <v>17.588</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.61</v>
+        <v>19.607</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>20.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.68</v>
+        <v>5.676</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.98</v>
+        <v>24.978</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.13</v>
+        <v>15.132</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.509</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.204</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.65</v>
+        <v>261.645</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.39</v>
+        <v>49.391</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.87</v>
+        <v>32.871</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.19</v>
+        <v>17.187</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.95</v>
+        <v>2.955</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.83</v>
+        <v>32.829</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.89</v>
+        <v>12.886</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.18</v>
+        <v>15.185</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.37</v>
+        <v>20.367</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>60.48</v>
+        <v>60.483</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.1</v>
+        <v>9.095000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.39</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>44996.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.06</v>
+        <v>21.063</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.5</v>
+        <v>15.498</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.459</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>46.03</v>
+        <v>46.026</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.21</v>
+        <v>37.207</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>16.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.15000000000001</v>
+        <v>65.146</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.63</v>
+        <v>16.628</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>18.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.56</v>
+        <v>19.556</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.31</v>
+        <v>5.314</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.47</v>
+        <v>23.469</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.07</v>
+        <v>14.069</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.039</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.951</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.48</v>
+        <v>244.484</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.29</v>
+        <v>46.287</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.95</v>
+        <v>30.952</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.21</v>
+        <v>16.208</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.59</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.62</v>
+        <v>31.619</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.01</v>
+        <v>12.014</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.14</v>
+        <v>14.138</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.19</v>
+        <v>19.193</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.4</v>
+        <v>59.399</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.551</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>19.09</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44996.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.79</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_315.xlsx
+++ b/DATA_goal/Junction_Flooding_315.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,28 +967,28 @@
         <v>44996.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.94</v>
+        <v>11.943</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.75</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.947</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.17</v>
+        <v>26.169</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.98</v>
+        <v>20.984</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.33</v>
+        <v>9.333</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>39.63</v>
+        <v>39.627</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.38</v>
@@ -997,73 +997,177 @@
         <v>9.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.46</v>
+        <v>10.463</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.14</v>
+        <v>11.143</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.02</v>
+        <v>3.021</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.31</v>
+        <v>13.314</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.07</v>
+        <v>8.074</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.586</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.75</v>
+        <v>135.752</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.38</v>
+        <v>26.382</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.57</v>
+        <v>17.565</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.18</v>
+        <v>9.177</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.549</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.82</v>
+        <v>18.823</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.87</v>
+        <v>6.867</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.07</v>
+        <v>8.074</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.88</v>
+        <v>10.884</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.24</v>
+        <v>36.238</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.82</v>
+        <v>4.821</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44996.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.48</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.66</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.79</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.63</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_315.xlsx
+++ b/DATA_goal/Junction_Flooding_315.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,28 +967,28 @@
         <v>44996.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.943</v>
+        <v>11.94</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.750999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.947</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.169</v>
+        <v>26.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.984</v>
+        <v>20.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.333</v>
+        <v>9.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>39.627</v>
+        <v>39.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.543</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.38</v>
@@ -997,177 +997,73 @@
         <v>9.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.463</v>
+        <v>10.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.143</v>
+        <v>11.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.021</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.314</v>
+        <v>13.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.074</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.586</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>135.752</v>
+        <v>135.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.382</v>
+        <v>26.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.676</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.565</v>
+        <v>17.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.177</v>
+        <v>9.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.549</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.823</v>
+        <v>18.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.663</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.867</v>
+        <v>6.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.074</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.884</v>
+        <v>10.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.238</v>
+        <v>36.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.821</v>
+        <v>4.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.847</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44996.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.79</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.63</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>
